--- a/testdata/Login.xlsx
+++ b/testdata/Login.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,10 @@
     <t>login1</t>
   </si>
   <si>
-    <t>eie_kalai@yahoo.com</t>
+    <t>yourusername</t>
   </si>
   <si>
-    <t>Citrix123</t>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -455,16 +455,16 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -475,7 +475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -486,22 +486,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
